--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Insl5-Rxfp3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Insl5-Rxfp3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Insl5</t>
   </si>
   <si>
     <t>Rxfp3</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,40 +540,40 @@
         <v>0.356614</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2549271348773238</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.339160140832479</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3193893333333333</v>
+        <v>0.014941</v>
       </c>
       <c r="N2">
-        <v>0.9581679999999999</v>
+        <v>0.044823</v>
       </c>
       <c r="O2">
-        <v>0.6989842796234754</v>
+        <v>0.02111135707456304</v>
       </c>
       <c r="P2">
-        <v>0.7709969302321839</v>
+        <v>0.0256164071193072</v>
       </c>
       <c r="Q2">
-        <v>0.03796623590577777</v>
+        <v>0.001776056591333333</v>
       </c>
       <c r="R2">
-        <v>0.3416961231519999</v>
+        <v>0.015984509322</v>
       </c>
       <c r="S2">
-        <v>0.6989842796234754</v>
+        <v>0.005381857772390477</v>
       </c>
       <c r="T2">
-        <v>0.7709969302321839</v>
+        <v>0.008688064246206348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,40 +602,40 @@
         <v>0.356614</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2549271348773238</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.339160140832479</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.009508666666666667</v>
+        <v>0.3193893333333333</v>
       </c>
       <c r="N3">
-        <v>0.028526</v>
+        <v>0.9581679999999999</v>
       </c>
       <c r="O3">
-        <v>0.02080973854328183</v>
+        <v>0.4512912296236288</v>
       </c>
       <c r="P3">
-        <v>0.0229536557595362</v>
+        <v>0.54759435059439</v>
       </c>
       <c r="Q3">
-        <v>0.001130307884888889</v>
+        <v>0.03796623590577777</v>
       </c>
       <c r="R3">
-        <v>0.010172770964</v>
+        <v>0.3416961231519999</v>
       </c>
       <c r="S3">
-        <v>0.02080973854328183</v>
+        <v>0.1150463801632161</v>
       </c>
       <c r="T3">
-        <v>0.0229536557595362</v>
+        <v>0.1857221770666632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>0.356614</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2549271348773238</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.339160140832479</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,214 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1280355</v>
+        <v>0.373393</v>
       </c>
       <c r="N4">
-        <v>0.256071</v>
+        <v>0.7467860000000001</v>
       </c>
       <c r="O4">
-        <v>0.2802059818332427</v>
+        <v>0.5275974133018082</v>
       </c>
       <c r="P4">
-        <v>0.2060494140082799</v>
+        <v>0.4267892422863028</v>
       </c>
       <c r="Q4">
-        <v>0.015219750599</v>
+        <v>0.04438572376733334</v>
       </c>
       <c r="R4">
-        <v>0.091318503594</v>
+        <v>0.266314342604</v>
       </c>
       <c r="S4">
-        <v>0.2802059818332427</v>
+        <v>0.1344988969417172</v>
       </c>
       <c r="T4">
-        <v>0.2060494140082799</v>
+        <v>0.1447498995196095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.347424</v>
+      </c>
+      <c r="H5">
+        <v>0.694848</v>
+      </c>
+      <c r="I5">
+        <v>0.7450728651226762</v>
+      </c>
+      <c r="J5">
+        <v>0.6608398591675211</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.014941</v>
+      </c>
+      <c r="N5">
+        <v>0.044823</v>
+      </c>
+      <c r="O5">
+        <v>0.02111135707456304</v>
+      </c>
+      <c r="P5">
+        <v>0.0256164071193072</v>
+      </c>
+      <c r="Q5">
+        <v>0.005190861984</v>
+      </c>
+      <c r="R5">
+        <v>0.031145171904</v>
+      </c>
+      <c r="S5">
+        <v>0.01572949930217257</v>
+      </c>
+      <c r="T5">
+        <v>0.01692834287310086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.347424</v>
+      </c>
+      <c r="H6">
+        <v>0.694848</v>
+      </c>
+      <c r="I6">
+        <v>0.7450728651226762</v>
+      </c>
+      <c r="J6">
+        <v>0.6608398591675211</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.3193893333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.9581679999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.4512912296236288</v>
+      </c>
+      <c r="P6">
+        <v>0.54759435059439</v>
+      </c>
+      <c r="Q6">
+        <v>0.110963519744</v>
+      </c>
+      <c r="R6">
+        <v>0.665781118464</v>
+      </c>
+      <c r="S6">
+        <v>0.3362448494604127</v>
+      </c>
+      <c r="T6">
+        <v>0.3618721735277268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.347424</v>
+      </c>
+      <c r="H7">
+        <v>0.694848</v>
+      </c>
+      <c r="I7">
+        <v>0.7450728651226762</v>
+      </c>
+      <c r="J7">
+        <v>0.6608398591675211</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.373393</v>
+      </c>
+      <c r="N7">
+        <v>0.7467860000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.5275974133018082</v>
+      </c>
+      <c r="P7">
+        <v>0.4267892422863028</v>
+      </c>
+      <c r="Q7">
+        <v>0.129725689632</v>
+      </c>
+      <c r="R7">
+        <v>0.5189027585280001</v>
+      </c>
+      <c r="S7">
+        <v>0.393098516360091</v>
+      </c>
+      <c r="T7">
+        <v>0.2820393427666934</v>
       </c>
     </row>
   </sheetData>
